--- a/Data/062018/phancong.xlsx
+++ b/Data/062018/phancong.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F560187-2D0C-4CB3-9C12-644C33B3F1FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F354918C-3C3E-4F2F-8A6D-770288928455}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
   <si>
     <t>x01593</t>
   </si>
@@ -29,6 +29,57 @@
   </si>
   <si>
     <t>x05605</t>
+  </si>
+  <si>
+    <t>Minh-Duc</t>
+  </si>
+  <si>
+    <t>Cuong-*</t>
+  </si>
+  <si>
+    <t>Hai-Tien</t>
+  </si>
+  <si>
+    <t>Cuong-Thai-*</t>
+  </si>
+  <si>
+    <t>Cuong-Thai</t>
+  </si>
+  <si>
+    <t>Thai-Cuong</t>
+  </si>
+  <si>
+    <t>*-Duc</t>
+  </si>
+  <si>
+    <t>Minh-*</t>
+  </si>
+  <si>
+    <t>Thai-*</t>
+  </si>
+  <si>
+    <t>Hai-*</t>
+  </si>
+  <si>
+    <t>Minh-Cuong</t>
+  </si>
+  <si>
+    <t>Minh-Thai</t>
+  </si>
+  <si>
+    <t>Thai-Duc</t>
+  </si>
+  <si>
+    <t>Minh-Cuong-*</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Hai-Duc</t>
+  </si>
+  <si>
+    <t>Hai-Thai</t>
   </si>
 </sst>
 </file>
@@ -92,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -100,7 +151,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -386,21 +436,21 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -416,89 +466,148 @@
       <c r="A2" s="3">
         <v>43252</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43253</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43254</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43255</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43256</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43257</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43258</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43259</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43260</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43261</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43262</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -512,150 +621,239 @@
       <c r="A14" s="3">
         <v>43264</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43265</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43266</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43267</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43268</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43269</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43270</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43271</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43272</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43273</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43274</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43275</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43276</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43277</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43278</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43279</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43280</v>
       </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
+      <c r="C30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43281</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="9"/>
+      <c r="D32" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/062018/phancong.xlsx
+++ b/Data/062018/phancong.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F354918C-3C3E-4F2F-8A6D-770288928455}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03781724-C9A1-4058-8E7F-7A821A0DD138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
   <si>
     <t>x01593</t>
   </si>
@@ -436,10 +436,10 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,6 +792,9 @@
       <c r="A27" s="3">
         <v>43277</v>
       </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
